--- a/state_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
+++ b/state_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.0185</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0261798000469057</v>
+        <v>0.0261820367433597</v>
       </c>
       <c r="H3" t="n">
         <v>0.104</v>
@@ -732,7 +732,7 @@
         <v>0.0185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0261798000469057</v>
+        <v>0.0261820367433597</v>
       </c>
       <c r="H4" t="n">
         <v>0.104</v>
@@ -1153,7 +1153,7 @@
         <v>0.02727</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0374994988158698</v>
+        <v>0.0375012401813625</v>
       </c>
       <c r="H9" t="n">
         <v>0.186824446936502</v>
@@ -1234,7 +1234,7 @@
         <v>0.02727</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0374994988158698</v>
+        <v>0.0375012401813625</v>
       </c>
       <c r="H10" t="n">
         <v>0.186824446936502</v>
@@ -1315,7 +1315,7 @@
         <v>0.39</v>
       </c>
       <c r="G11" t="n">
-        <v>0.398923029015586</v>
+        <v>0.398989031896915</v>
       </c>
       <c r="H11" t="n">
         <v>1.06</v>
@@ -1396,7 +1396,7 @@
         <v>0.39</v>
       </c>
       <c r="G12" t="n">
-        <v>0.398923029015586</v>
+        <v>0.398989031896915</v>
       </c>
       <c r="H12" t="n">
         <v>1.06</v>
@@ -1781,7 +1781,7 @@
         <v>0.0335</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0475533280764381</v>
+        <v>0.0475500503348304</v>
       </c>
       <c r="H17" t="n">
         <v>0.291</v>
@@ -1858,7 +1858,7 @@
         <v>0.0335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0475533280764381</v>
+        <v>0.0475500503348304</v>
       </c>
       <c r="H18" t="n">
         <v>0.291</v>
@@ -2101,7 +2101,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0250194095590259</v>
+        <v>0.0250209472180436</v>
       </c>
       <c r="H21" t="n">
         <v>0.098</v>
@@ -2182,7 +2182,7 @@
         <v>0.02</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0250194095590259</v>
+        <v>0.0250209472180436</v>
       </c>
       <c r="H22" t="n">
         <v>0.098</v>
@@ -2765,7 +2765,7 @@
         <v>0.38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.393381594522609</v>
+        <v>0.393434127428157</v>
       </c>
       <c r="H29" t="n">
         <v>1.06</v>
@@ -2846,7 +2846,7 @@
         <v>0.38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.393381594522609</v>
+        <v>0.393434127428157</v>
       </c>
       <c r="H30" t="n">
         <v>1.06</v>
@@ -3231,7 +3231,7 @@
         <v>0.034</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0473575089564985</v>
+        <v>0.0473542867698332</v>
       </c>
       <c r="H35" t="n">
         <v>0.291</v>
@@ -3308,7 +3308,7 @@
         <v>0.034</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0473575089564985</v>
+        <v>0.0473542867698332</v>
       </c>
       <c r="H36" t="n">
         <v>0.291</v>
@@ -3551,7 +3551,7 @@
         <v>0.017</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0240024604064835</v>
+        <v>0.0240039980655012</v>
       </c>
       <c r="H39" t="n">
         <v>0.098</v>
@@ -3632,7 +3632,7 @@
         <v>0.017</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0240024604064835</v>
+        <v>0.0240039980655012</v>
       </c>
       <c r="H40" t="n">
         <v>0.098</v>
@@ -4215,7 +4215,7 @@
         <v>0.38</v>
       </c>
       <c r="G47" t="n">
-        <v>0.382047425959455</v>
+        <v>0.382091054982706</v>
       </c>
       <c r="H47" t="n">
         <v>1.06</v>
@@ -4296,7 +4296,7 @@
         <v>0.38</v>
       </c>
       <c r="G48" t="n">
-        <v>0.382047425959455</v>
+        <v>0.382091054982706</v>
       </c>
       <c r="H48" t="n">
         <v>1.06</v>
@@ -4681,7 +4681,7 @@
         <v>0.033</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0429676784480239</v>
+        <v>0.0429644562613587</v>
       </c>
       <c r="H53" t="n">
         <v>0.16</v>
@@ -4758,7 +4758,7 @@
         <v>0.033</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0429676784480239</v>
+        <v>0.0429644562613587</v>
       </c>
       <c r="H54" t="n">
         <v>0.16</v>
@@ -4920,10 +4920,10 @@
         <v>1.6</v>
       </c>
       <c r="G56" t="n">
-        <v>1.95208335570266</v>
+        <v>1.93776581321249</v>
       </c>
       <c r="H56" t="n">
-        <v>4.90265922580003</v>
+        <v>4.36323448964001</v>
       </c>
       <c r="I56" t="n">
         <v>4.11</v>
@@ -5001,7 +5001,7 @@
         <v>0.017</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0225690860663754</v>
+        <v>0.0225705980977428</v>
       </c>
       <c r="H57" t="n">
         <v>0.098</v>
@@ -5082,7 +5082,7 @@
         <v>0.017</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0225690860663754</v>
+        <v>0.0225705980977428</v>
       </c>
       <c r="H58" t="n">
         <v>0.098</v>
@@ -5503,7 +5503,7 @@
         <v>0.01967</v>
       </c>
       <c r="G63" t="n">
-        <v>0.030694674324032</v>
+        <v>0.0307057340345397</v>
       </c>
       <c r="H63" t="n">
         <v>0.186824446936502</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00324</v>
+        <v>0.00325</v>
       </c>
       <c r="M63" t="n">
         <v>0.05396</v>
@@ -5584,7 +5584,7 @@
         <v>0.01967</v>
       </c>
       <c r="G64" t="n">
-        <v>0.030694674324032</v>
+        <v>0.0307057340345397</v>
       </c>
       <c r="H64" t="n">
         <v>0.186824446936502</v>
@@ -5595,7 +5595,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00324</v>
+        <v>0.00325</v>
       </c>
       <c r="M64" t="n">
         <v>0.05396</v>
@@ -5665,7 +5665,7 @@
         <v>0.379</v>
       </c>
       <c r="G65" t="n">
-        <v>0.388243302193464</v>
+        <v>0.388286204066328</v>
       </c>
       <c r="H65" t="n">
         <v>1.06</v>
@@ -5746,7 +5746,7 @@
         <v>0.379</v>
       </c>
       <c r="G66" t="n">
-        <v>0.388243302193464</v>
+        <v>0.388286204066328</v>
       </c>
       <c r="H66" t="n">
         <v>1.06</v>
@@ -6131,7 +6131,7 @@
         <v>0.032</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0421182171405568</v>
+        <v>0.0421150486570027</v>
       </c>
       <c r="H71" t="n">
         <v>0.16</v>
@@ -6208,7 +6208,7 @@
         <v>0.032</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0421182171405568</v>
+        <v>0.0421150486570027</v>
       </c>
       <c r="H72" t="n">
         <v>0.16</v>
@@ -6370,10 +6370,10 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2.15771971933902</v>
+        <v>2.14340217684886</v>
       </c>
       <c r="H74" t="n">
-        <v>4.90265922580003</v>
+        <v>4.36323448964001</v>
       </c>
       <c r="I74" t="n">
         <v>4.16</v>
@@ -6451,7 +6451,7 @@
         <v>0.0155</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0223024193997088</v>
+        <v>0.0223039314310762</v>
       </c>
       <c r="H75" t="n">
         <v>0.098</v>
@@ -6532,7 +6532,7 @@
         <v>0.0155</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0223024193997088</v>
+        <v>0.0223039314310762</v>
       </c>
       <c r="H76" t="n">
         <v>0.098</v>
@@ -7030,7 +7030,7 @@
         <v>0.01481</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0244570435868003</v>
+        <v>0.0244781091228138</v>
       </c>
       <c r="H82" t="n">
         <v>0.186824446936502</v>
@@ -7041,7 +7041,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00324</v>
+        <v>0.00325</v>
       </c>
       <c r="M82" t="n">
         <v>0.05018</v>
@@ -7111,7 +7111,7 @@
         <v>0.01481</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0244570435868003</v>
+        <v>0.0244781091228138</v>
       </c>
       <c r="H83" t="n">
         <v>0.186824446936502</v>
@@ -7122,7 +7122,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00324</v>
+        <v>0.00325</v>
       </c>
       <c r="M83" t="n">
         <v>0.05018</v>
@@ -7192,7 +7192,7 @@
         <v>0.36315</v>
       </c>
       <c r="G84" t="n">
-        <v>0.381731485132469</v>
+        <v>0.381821278491941</v>
       </c>
       <c r="H84" t="n">
         <v>1.06</v>
@@ -7273,7 +7273,7 @@
         <v>0.36315</v>
       </c>
       <c r="G85" t="n">
-        <v>0.381731485132469</v>
+        <v>0.381821278491941</v>
       </c>
       <c r="H85" t="n">
         <v>1.06</v>
@@ -7350,7 +7350,7 @@
         <v>0.4005</v>
       </c>
       <c r="G86" t="n">
-        <v>0.422924284243915</v>
+        <v>0.422972665705076</v>
       </c>
       <c r="H86" t="n">
         <v>1.091</v>
@@ -7427,7 +7427,7 @@
         <v>0.4005</v>
       </c>
       <c r="G87" t="n">
-        <v>0.422924284243915</v>
+        <v>0.422972665705076</v>
       </c>
       <c r="H87" t="n">
         <v>1.091</v>
@@ -7658,7 +7658,7 @@
         <v>0.0325</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0430015504738901</v>
+        <v>0.042998381990336</v>
       </c>
       <c r="H90" t="n">
         <v>0.16</v>
@@ -7735,7 +7735,7 @@
         <v>0.0325</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0430015504738901</v>
+        <v>0.042998381990336</v>
       </c>
       <c r="H91" t="n">
         <v>0.16</v>
@@ -7897,13 +7897,13 @@
         <v>2.635</v>
       </c>
       <c r="G93" t="n">
-        <v>2.57931893391628</v>
+        <v>2.56417537935937</v>
       </c>
       <c r="H93" t="n">
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>4.86798</v>
+        <v>4.36244</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7914,7 +7914,7 @@
         <v>3.906</v>
       </c>
       <c r="N93" t="n">
-        <v>4.30275</v>
+        <v>4.22641</v>
       </c>
       <c r="O93" t="n">
         <v>1796683.601</v>
@@ -8557,7 +8557,7 @@
         <v>0.01214</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0173962291150516</v>
+        <v>0.0174172946510651</v>
       </c>
       <c r="H101" t="n">
         <v>0.07976869628152761</v>
@@ -8568,7 +8568,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00324</v>
+        <v>0.00325</v>
       </c>
       <c r="M101" t="n">
         <v>0.03336</v>
@@ -8638,7 +8638,7 @@
         <v>0.01214</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0173962291150516</v>
+        <v>0.0174172946510651</v>
       </c>
       <c r="H102" t="n">
         <v>0.07976869628152761</v>
@@ -8649,7 +8649,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00324</v>
+        <v>0.00325</v>
       </c>
       <c r="M102" t="n">
         <v>0.03336</v>
@@ -8719,7 +8719,7 @@
         <v>0.36805</v>
       </c>
       <c r="G103" t="n">
-        <v>0.383381516272338</v>
+        <v>0.383428407758946</v>
       </c>
       <c r="H103" t="n">
         <v>0.955</v>
@@ -8800,7 +8800,7 @@
         <v>0.36805</v>
       </c>
       <c r="G104" t="n">
-        <v>0.383381516272338</v>
+        <v>0.383428407758946</v>
       </c>
       <c r="H104" t="n">
         <v>0.955</v>
@@ -8877,7 +8877,7 @@
         <v>0.4005</v>
       </c>
       <c r="G105" t="n">
-        <v>0.422274284243915</v>
+        <v>0.422322665705076</v>
       </c>
       <c r="H105" t="n">
         <v>0.965</v>
@@ -8954,7 +8954,7 @@
         <v>0.4005</v>
       </c>
       <c r="G106" t="n">
-        <v>0.422274284243915</v>
+        <v>0.422322665705076</v>
       </c>
       <c r="H106" t="n">
         <v>0.965</v>
@@ -9501,13 +9501,13 @@
         <v>2.8</v>
       </c>
       <c r="G113" t="n">
-        <v>2.84325682782952</v>
+        <v>2.82718611687117</v>
       </c>
       <c r="H113" t="n">
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>4.90013</v>
+        <v>4.39007</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -9518,7 +9518,7 @@
         <v>3.9434</v>
       </c>
       <c r="N113" t="n">
-        <v>4.40351</v>
+        <v>4.27328</v>
       </c>
       <c r="O113" t="n">
         <v>1796683.601</v>
@@ -10161,7 +10161,7 @@
         <v>0.01231</v>
       </c>
       <c r="G121" t="n">
-        <v>0.016903487200779</v>
+        <v>0.0169258643602225</v>
       </c>
       <c r="H121" t="n">
         <v>0.07976869628152761</v>
@@ -10172,7 +10172,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00465</v>
+        <v>0.00473</v>
       </c>
       <c r="M121" t="n">
         <v>0.03037</v>
@@ -10242,7 +10242,7 @@
         <v>0.01231</v>
       </c>
       <c r="G122" t="n">
-        <v>0.016903487200779</v>
+        <v>0.0169258643602225</v>
       </c>
       <c r="H122" t="n">
         <v>0.07976869628152761</v>
@@ -10253,7 +10253,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.00465</v>
+        <v>0.00473</v>
       </c>
       <c r="M122" t="n">
         <v>0.03037</v>
@@ -10323,7 +10323,7 @@
         <v>0.4112</v>
       </c>
       <c r="G123" t="n">
-        <v>0.388186516272338</v>
+        <v>0.388233407758946</v>
       </c>
       <c r="H123" t="n">
         <v>0.955</v>
@@ -10404,7 +10404,7 @@
         <v>0.4112</v>
       </c>
       <c r="G124" t="n">
-        <v>0.388186516272338</v>
+        <v>0.388233407758946</v>
       </c>
       <c r="H124" t="n">
         <v>0.955</v>
@@ -10558,7 +10558,7 @@
         <v>0.4525</v>
       </c>
       <c r="G126" t="n">
-        <v>0.426540950910582</v>
+        <v>0.426589332371743</v>
       </c>
       <c r="H126" t="n">
         <v>0.965</v>
@@ -10635,7 +10635,7 @@
         <v>0.4525</v>
       </c>
       <c r="G127" t="n">
-        <v>0.426540950910582</v>
+        <v>0.426589332371743</v>
       </c>
       <c r="H127" t="n">
         <v>0.965</v>
@@ -11182,13 +11182,13 @@
         <v>2.95</v>
       </c>
       <c r="G134" t="n">
-        <v>2.91640801174263</v>
+        <v>2.90000249430598</v>
       </c>
       <c r="H134" t="n">
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>4.90027</v>
+        <v>4.45</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -11199,7 +11199,7 @@
         <v>4.0874</v>
       </c>
       <c r="N134" t="n">
-        <v>4.5187</v>
+        <v>4.36054</v>
       </c>
       <c r="O134" t="n">
         <v>1796683.601</v>
@@ -11842,7 +11842,7 @@
         <v>0.01598</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0194033549600339</v>
+        <v>0.0194261113933663</v>
       </c>
       <c r="H142" t="n">
         <v>0.0629341444018808</v>
@@ -11923,7 +11923,7 @@
         <v>0.01598</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0194033549600339</v>
+        <v>0.0194261113933663</v>
       </c>
       <c r="H143" t="n">
         <v>0.0629341444018808</v>
@@ -12004,7 +12004,7 @@
         <v>0.35065</v>
       </c>
       <c r="G144" t="n">
-        <v>0.377834849605671</v>
+        <v>0.37788174109228</v>
       </c>
       <c r="H144" t="n">
         <v>0.955</v>
@@ -12085,7 +12085,7 @@
         <v>0.35065</v>
       </c>
       <c r="G145" t="n">
-        <v>0.377834849605671</v>
+        <v>0.37788174109228</v>
       </c>
       <c r="H145" t="n">
         <v>0.955</v>
@@ -12239,7 +12239,7 @@
         <v>0.4365</v>
       </c>
       <c r="G147" t="n">
-        <v>0.418124284243915</v>
+        <v>0.418172665705076</v>
       </c>
       <c r="H147" t="n">
         <v>0.965</v>
@@ -12316,7 +12316,7 @@
         <v>0.4365</v>
       </c>
       <c r="G148" t="n">
-        <v>0.418124284243915</v>
+        <v>0.418172665705076</v>
       </c>
       <c r="H148" t="n">
         <v>0.965</v>
@@ -12863,7 +12863,7 @@
         <v>2.9</v>
       </c>
       <c r="G155" t="n">
-        <v>2.87348805907449</v>
+        <v>2.83320165605946</v>
       </c>
       <c r="H155" t="n">
         <v>6</v>
@@ -12874,7 +12874,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>2.87797</v>
+        <v>2.85</v>
       </c>
       <c r="M155" t="n">
         <v>3.8204</v>
@@ -13523,7 +13523,7 @@
         <v>0.01867</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0239897749502826</v>
+        <v>0.0240019007884281</v>
       </c>
       <c r="H163" t="n">
         <v>0.119946143651976</v>
@@ -13604,7 +13604,7 @@
         <v>0.01867</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0239897749502826</v>
+        <v>0.0240019007884281</v>
       </c>
       <c r="H164" t="n">
         <v>0.119946143651976</v>
@@ -13685,7 +13685,7 @@
         <v>0.3175</v>
       </c>
       <c r="G165" t="n">
-        <v>0.370660189247246</v>
+        <v>0.370708697681668</v>
       </c>
       <c r="H165" t="n">
         <v>0.955</v>
@@ -13766,7 +13766,7 @@
         <v>0.3175</v>
       </c>
       <c r="G166" t="n">
-        <v>0.370660189247246</v>
+        <v>0.370708697681668</v>
       </c>
       <c r="H166" t="n">
         <v>0.955</v>
@@ -13920,7 +13920,7 @@
         <v>0.39</v>
       </c>
       <c r="G168" t="n">
-        <v>0.419567068722626</v>
+        <v>0.419616270208552</v>
       </c>
       <c r="H168" t="n">
         <v>0.965</v>
@@ -13997,7 +13997,7 @@
         <v>0.39</v>
       </c>
       <c r="G169" t="n">
-        <v>0.419567068722626</v>
+        <v>0.419616270208552</v>
       </c>
       <c r="H169" t="n">
         <v>0.965</v>
@@ -14544,7 +14544,7 @@
         <v>3</v>
       </c>
       <c r="G176" t="n">
-        <v>2.92348694829072</v>
+        <v>2.8794529729022</v>
       </c>
       <c r="H176" t="n">
         <v>6</v>
@@ -15204,7 +15204,7 @@
         <v>0.01878</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0275507608490996</v>
+        <v>0.0275521661599175</v>
       </c>
       <c r="H184" t="n">
         <v>0.150334204430969</v>
@@ -15285,7 +15285,7 @@
         <v>0.01878</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0275507608490996</v>
+        <v>0.0275521661599175</v>
       </c>
       <c r="H185" t="n">
         <v>0.150334204430969</v>
@@ -16225,7 +16225,7 @@
         <v>3</v>
       </c>
       <c r="G197" t="n">
-        <v>2.83360941045836</v>
+        <v>2.78101327318874</v>
       </c>
       <c r="H197" t="n">
         <v>4.5</v>
@@ -16885,7 +16885,7 @@
         <v>0.02451</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0310242277270076</v>
+        <v>0.0310256330378255</v>
       </c>
       <c r="H205" t="n">
         <v>0.150334204430969</v>
@@ -16966,7 +16966,7 @@
         <v>0.02451</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0310242277270076</v>
+        <v>0.0310256330378255</v>
       </c>
       <c r="H206" t="n">
         <v>0.150334204430969</v>
@@ -17718,6 +17718,1687 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.2615</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.35605</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>47</v>
+      </c>
+      <c r="G217" t="n">
+        <v>61.8627659574468</v>
+      </c>
+      <c r="H217" t="n">
+        <v>205</v>
+      </c>
+      <c r="I217" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>75</v>
+      </c>
+      <c r="M217" t="n">
+        <v>102.55</v>
+      </c>
+      <c r="N217" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>3</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2.71154926115983</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M218" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4.2812</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.011551724137931</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.01986</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.011551724137931</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.01986</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>190</v>
+      </c>
+      <c r="G221" t="n">
+        <v>704.3103448275861</v>
+      </c>
+      <c r="H221" t="n">
+        <v>12360</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3611.6</v>
+      </c>
+      <c r="J221" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K221" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L221" t="n">
+        <v>283</v>
+      </c>
+      <c r="M221" t="n">
+        <v>702.8</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1815.72</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>190</v>
+      </c>
+      <c r="G222" t="n">
+        <v>704.3103448275861</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12360</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3611.6</v>
+      </c>
+      <c r="J222" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K222" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L222" t="n">
+        <v>283</v>
+      </c>
+      <c r="M222" t="n">
+        <v>702.8</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1815.72</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>190</v>
+      </c>
+      <c r="G223" t="n">
+        <v>704.3103448275861</v>
+      </c>
+      <c r="H223" t="n">
+        <v>12360</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3611.6</v>
+      </c>
+      <c r="J223" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K223" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L223" t="n">
+        <v>283</v>
+      </c>
+      <c r="M223" t="n">
+        <v>702.8</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1815.72</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>190</v>
+      </c>
+      <c r="G224" t="n">
+        <v>704.3103448275861</v>
+      </c>
+      <c r="H224" t="n">
+        <v>12360</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3611.6</v>
+      </c>
+      <c r="J224" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K224" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L224" t="n">
+        <v>283</v>
+      </c>
+      <c r="M224" t="n">
+        <v>702.8</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1815.72</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>91.54000000000001</v>
+      </c>
+      <c r="G225" t="n">
+        <v>86.908</v>
+      </c>
+      <c r="H225" t="n">
+        <v>100</v>
+      </c>
+      <c r="I225" t="n">
+        <v>100</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>83.77</v>
+      </c>
+      <c r="M225" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="N225" t="n">
+        <v>100</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.02559</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.0313889107726795</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.150334204430969</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.03176</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.05423</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.02559</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.0313889107726795</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.150334204430969</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.03176</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.05423</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.38098275862069</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.7524</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.2335</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.62156</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.7276</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.38098275862069</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.7524</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.2335</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.62156</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.7276</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="G230" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I230" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>3.6725</v>
+      </c>
+      <c r="M230" t="n">
+        <v>3.9875</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.440101694915254</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.8372000000000001</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.70087</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.80272</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.440101694915254</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.8372000000000001</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.70087</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.80272</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.60448275862069</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.8658</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.60448275862069</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.8658</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.04092</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.04772</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.04092</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.04772</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
+++ b/state_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
@@ -4920,10 +4920,10 @@
         <v>1.6</v>
       </c>
       <c r="G56" t="n">
-        <v>1.93776581321249</v>
+        <v>1.9645865431082</v>
       </c>
       <c r="H56" t="n">
-        <v>4.36323448964001</v>
+        <v>5.62818575543303</v>
       </c>
       <c r="I56" t="n">
         <v>4.11</v>
@@ -6370,10 +6370,10 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>2.14340217684886</v>
+        <v>2.17022290674457</v>
       </c>
       <c r="H74" t="n">
-        <v>4.36323448964001</v>
+        <v>5.62818575543303</v>
       </c>
       <c r="I74" t="n">
         <v>4.16</v>
@@ -7897,13 +7897,13 @@
         <v>2.635</v>
       </c>
       <c r="G93" t="n">
-        <v>2.56417537935937</v>
+        <v>2.59254345905675</v>
       </c>
       <c r="H93" t="n">
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>4.36244</v>
+        <v>4.86655</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7914,7 +7914,7 @@
         <v>3.906</v>
       </c>
       <c r="N93" t="n">
-        <v>4.22641</v>
+        <v>4.29787</v>
       </c>
       <c r="O93" t="n">
         <v>1796683.601</v>
@@ -9501,13 +9501,13 @@
         <v>2.8</v>
       </c>
       <c r="G113" t="n">
-        <v>2.82718611687117</v>
+        <v>2.85729101777451</v>
       </c>
       <c r="H113" t="n">
         <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>4.39007</v>
+        <v>4.93641</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -9518,7 +9518,7 @@
         <v>3.9434</v>
       </c>
       <c r="N113" t="n">
-        <v>4.27328</v>
+        <v>4.39519</v>
       </c>
       <c r="O113" t="n">
         <v>1796683.601</v>
@@ -11182,13 +11182,13 @@
         <v>2.95</v>
       </c>
       <c r="G134" t="n">
-        <v>2.90000249430598</v>
+        <v>2.93073458064482</v>
       </c>
       <c r="H134" t="n">
         <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>4.45</v>
+        <v>4.97282</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -11199,7 +11199,7 @@
         <v>4.0874</v>
       </c>
       <c r="N134" t="n">
-        <v>4.36054</v>
+        <v>4.50923</v>
       </c>
       <c r="O134" t="n">
         <v>1796683.601</v>
@@ -12860,27 +12860,27 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G155" t="n">
-        <v>2.83320165605946</v>
+        <v>2.91700731000434</v>
       </c>
       <c r="H155" t="n">
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>4.56</v>
+        <v>4.9002</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M155" t="n">
-        <v>3.8204</v>
+        <v>3.9471</v>
       </c>
       <c r="N155" t="n">
-        <v>4.36568</v>
+        <v>4.474</v>
       </c>
       <c r="O155" t="n">
         <v>1796683.601</v>
@@ -14544,24 +14544,24 @@
         <v>3</v>
       </c>
       <c r="G176" t="n">
-        <v>2.8794529729022</v>
+        <v>2.97105450163266</v>
       </c>
       <c r="H176" t="n">
         <v>6</v>
       </c>
       <c r="I176" t="n">
-        <v>4.64</v>
+        <v>4.90047</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M176" t="n">
-        <v>3.719</v>
+        <v>3.82774</v>
       </c>
       <c r="N176" t="n">
-        <v>4.406</v>
+        <v>4.524</v>
       </c>
       <c r="O176" t="n">
         <v>1796683.601</v>
@@ -16222,27 +16222,27 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G197" t="n">
-        <v>2.78101327318874</v>
+        <v>2.89042621028345</v>
       </c>
       <c r="H197" t="n">
-        <v>4.5</v>
+        <v>4.9013435702042</v>
       </c>
       <c r="I197" t="n">
-        <v>4.3604</v>
+        <v>4.47</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M197" t="n">
-        <v>3.738</v>
+        <v>3.838</v>
       </c>
       <c r="N197" t="n">
-        <v>4.14564</v>
+        <v>4.34984</v>
       </c>
       <c r="O197" t="n">
         <v>1796683.601</v>
@@ -17903,27 +17903,27 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G218" t="n">
-        <v>2.71154926115983</v>
+        <v>2.84284478567347</v>
       </c>
       <c r="H218" t="n">
+        <v>4.9013435702042</v>
+      </c>
+      <c r="I218" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.4</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M218" t="n">
-        <v>3.78</v>
+        <v>3.9184</v>
       </c>
       <c r="N218" t="n">
-        <v>4.2812</v>
+        <v>4.41</v>
       </c>
       <c r="O218" t="n">
         <v>1796683.601</v>
